--- a/_1dock/Data.xlsx
+++ b/_1dock/Data.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhitrinh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OR_Programming\Operational-Research\_1dock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA0620CA-6D37-054A-8D53-2BA7FE4D77C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A427113-3453-44D1-BD32-36ECA0C66779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14620" yWindow="460" windowWidth="14180" windowHeight="16660" activeTab="1" xr2:uid="{19E701E5-E447-6348-8FE3-1B5232C0276E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{19E701E5-E447-6348-8FE3-1B5232C0276E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hiep Binh Chanh" sheetId="7" r:id="rId1"/>
     <sheet name="Truong Tho" sheetId="1" r:id="rId2"/>
+    <sheet name="Parameters" sheetId="8" r:id="rId3"/>
+    <sheet name="Customers" sheetId="9" r:id="rId4"/>
+    <sheet name="Depots" sheetId="10" r:id="rId5"/>
+    <sheet name="Vehicles" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Demand">'Hiep Binh Chanh'!$F$3:$F$52</definedName>
@@ -33,8 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="248">
   <si>
     <t>No.</t>
   </si>
@@ -730,6 +732,63 @@
   <si>
     <t>130 Đ. Số 11, Trường Thọ, Thủ Đức, Thành phố Hồ Chí Minh, Việt Nam</t>
   </si>
+  <si>
+    <t>num_vehicles</t>
+  </si>
+  <si>
+    <t>num_customers</t>
+  </si>
+  <si>
+    <t>Cus No</t>
+  </si>
+  <si>
+    <t>Vehicle No</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Max Load</t>
+  </si>
+  <si>
+    <t>Max Duration</t>
+  </si>
+  <si>
+    <t>service_time</t>
+  </si>
+  <si>
+    <t>ready_time</t>
+  </si>
+  <si>
+    <t>due_time</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>depot</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>vehicle_capacity</t>
+  </si>
+  <si>
+    <t>-90--&gt;90</t>
+  </si>
+  <si>
+    <t>-180--&gt;180</t>
+  </si>
 </sst>
 </file>
 
@@ -739,7 +798,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -796,6 +855,14 @@
       <b/>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -893,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -934,36 +1001,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,7 +1123,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1523,7 +1584,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="888741136"/>
@@ -1585,7 +1646,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="888907056"/>
@@ -1633,7 +1694,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1721,16 +1782,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -1788,7 +1846,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2340,7 +2398,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="968551248"/>
@@ -2402,7 +2460,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-VN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="968389632"/>
@@ -2450,7 +2508,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3954,97 +4012,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6E96BF-02C7-2F45-BD32-60F395D88A4A}">
   <dimension ref="A1:CB54"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="92" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="22.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="22.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="9.125" style="3" customWidth="1"/>
     <col min="11" max="11" width="11" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.125" style="3" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="3" customWidth="1"/>
     <col min="16" max="16" width="10.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="10.83203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="8.875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="9.625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="10.875" style="3" customWidth="1"/>
     <col min="25" max="25" width="8.5" style="3" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="9.625" style="3" customWidth="1"/>
     <col min="27" max="27" width="10.5" style="3" customWidth="1"/>
-    <col min="28" max="28" width="10.33203125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" style="3" customWidth="1"/>
-    <col min="30" max="44" width="10.83203125" style="3" customWidth="1"/>
-    <col min="45" max="16384" width="10.83203125" style="3"/>
+    <col min="28" max="28" width="10.375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="9.625" style="3" customWidth="1"/>
+    <col min="30" max="44" width="10.875" style="3" customWidth="1"/>
+    <col min="45" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
-    <row r="2" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+    <row r="2" spans="1:80" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="22">
         <v>10.838752167306399</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="22">
         <v>106.729674501852</v>
       </c>
       <c r="F2" s="21">
         <v>0</v>
       </c>
+      <c r="I2" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>247</v>
+      </c>
     </row>
-    <row r="3" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
+    <row r="3" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="4">
         <v>10.8224003328167</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="25">
         <v>106.717973938471</v>
       </c>
       <c r="F3" s="21">
@@ -4269,20 +4339,20 @@
       </c>
       <c r="CB3" s="3"/>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A4" s="30">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="4">
         <v>10.826379209013499</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="25">
         <v>106.71732099534501</v>
       </c>
       <c r="F4" s="21">
@@ -4466,20 +4536,20 @@
       <c r="BZ4" s="8"/>
       <c r="CA4" s="8"/>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="4">
         <v>10.8269622086233</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="25">
         <v>106.719013408839</v>
       </c>
       <c r="F5" s="21">
@@ -4663,20 +4733,20 @@
       <c r="BZ5" s="8"/>
       <c r="CA5" s="8"/>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="4">
         <v>10.825616309523999</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="25">
         <v>106.717306997191</v>
       </c>
       <c r="F6" s="21">
@@ -4860,20 +4930,20 @@
       <c r="BZ6" s="8"/>
       <c r="CA6" s="8"/>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="4">
         <v>10.8259465956219</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="25">
         <v>106.71786398185</v>
       </c>
       <c r="F7" s="21">
@@ -5057,20 +5127,20 @@
       <c r="BZ7" s="8"/>
       <c r="CA7" s="8"/>
     </row>
-    <row r="8" spans="1:80" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+    <row r="8" spans="1:80" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="4">
         <v>10.827122146369399</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="25">
         <v>106.723097295345</v>
       </c>
       <c r="F8" s="21">
@@ -5255,20 +5325,20 @@
       <c r="CA8" s="8"/>
       <c r="CB8" s="3"/>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="4">
         <v>10.829138907166399</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="25">
         <v>106.725925510686</v>
       </c>
       <c r="F9" s="21">
@@ -5452,20 +5522,20 @@
       <c r="BZ9" s="8"/>
       <c r="CA9" s="8"/>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="4">
         <v>10.8292402582151</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="25">
         <v>106.726045951168</v>
       </c>
       <c r="F10" s="21">
@@ -5649,20 +5719,20 @@
       <c r="BZ10" s="8"/>
       <c r="CA10" s="8"/>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="4">
         <v>10.8299522443755</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="25">
         <v>106.727765995345</v>
       </c>
       <c r="F11" s="21">
@@ -5846,20 +5916,20 @@
       <c r="BZ11" s="8"/>
       <c r="CA11" s="8"/>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="4">
         <v>10.826660573918099</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="25">
         <v>106.728197995345</v>
       </c>
       <c r="F12" s="21">
@@ -6043,20 +6113,20 @@
       <c r="BZ12" s="8"/>
       <c r="CA12" s="8"/>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="4">
         <v>10.826330522689901</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="25">
         <v>106.71768799719101</v>
       </c>
       <c r="F13" s="21">
@@ -6240,20 +6310,20 @@
       <c r="BZ13" s="8"/>
       <c r="CA13" s="8"/>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="4">
         <v>10.825098809870299</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="25">
         <v>106.715981351168</v>
       </c>
       <c r="F14" s="21">
@@ -6437,20 +6507,20 @@
       <c r="BZ14" s="8"/>
       <c r="CA14" s="8"/>
     </row>
-    <row r="15" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
+    <row r="15" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="4">
         <v>10.8224003328167</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="25">
         <v>106.717973938471</v>
       </c>
       <c r="F15" s="21">
@@ -6635,20 +6705,20 @@
       <c r="CA15" s="8"/>
       <c r="CB15" s="3"/>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="4">
         <v>10.828970134013399</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="25">
         <v>106.72644528185</v>
       </c>
       <c r="F16" s="21">
@@ -6832,20 +6902,20 @@
       <c r="BZ16" s="8"/>
       <c r="CA16" s="8"/>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="4">
         <v>10.8260489229081</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="25">
         <v>106.71755221068599</v>
       </c>
       <c r="F17" s="21">
@@ -7029,20 +7099,20 @@
       <c r="BZ17" s="8"/>
       <c r="CA17" s="8"/>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="4">
         <v>10.825638285320199</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="25">
         <v>106.715896795345</v>
       </c>
       <c r="F18" s="21">
@@ -7226,20 +7296,20 @@
       <c r="BZ18" s="8"/>
       <c r="CA18" s="8"/>
     </row>
-    <row r="19" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="4">
         <v>10.8246511722301</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="25">
         <v>106.714677695345</v>
       </c>
       <c r="F19" s="21">
@@ -7423,20 +7493,20 @@
       <c r="BZ19" s="8"/>
       <c r="CA19" s="8"/>
     </row>
-    <row r="20" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
+    <row r="20" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="4">
         <v>10.8224003328167</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="25">
         <v>106.717973938471</v>
       </c>
       <c r="F20" s="21">
@@ -7621,20 +7691,20 @@
       <c r="CA20" s="8"/>
       <c r="CB20" s="3"/>
     </row>
-    <row r="21" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="4">
         <v>10.825752374749401</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="25">
         <v>106.72060353952099</v>
       </c>
       <c r="F21" s="21">
@@ -7818,20 +7888,20 @@
       <c r="BZ21" s="8"/>
       <c r="CA21" s="8"/>
     </row>
-    <row r="22" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="4">
         <v>10.8246511722301</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="25">
         <v>106.714742068356</v>
       </c>
       <c r="F22" s="21">
@@ -8015,20 +8085,20 @@
       <c r="BZ22" s="8"/>
       <c r="CA22" s="8"/>
     </row>
-    <row r="23" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A23" s="30">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="4">
         <v>10.8224206257185</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="25">
         <v>106.71944342418</v>
       </c>
       <c r="F23" s="21">
@@ -8212,20 +8282,20 @@
       <c r="BZ23" s="8"/>
       <c r="CA23" s="8"/>
     </row>
-    <row r="24" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="4">
         <v>10.826148974386401</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="25">
         <v>106.71723289534501</v>
       </c>
       <c r="F24" s="21">
@@ -8409,20 +8479,20 @@
       <c r="BZ24" s="8"/>
       <c r="CA24" s="8"/>
     </row>
-    <row r="25" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A25" s="30">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="4">
         <v>10.823405935036501</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="25">
         <v>106.72029572418</v>
       </c>
       <c r="F25" s="21">
@@ -8606,20 +8676,20 @@
       <c r="BZ25" s="8"/>
       <c r="CA25" s="8"/>
     </row>
-    <row r="26" spans="1:80" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30">
+    <row r="26" spans="1:80" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="4">
         <v>10.827122146369399</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="25">
         <v>106.723097295345</v>
       </c>
       <c r="F26" s="21">
@@ -8804,20 +8874,20 @@
       <c r="CA26" s="8"/>
       <c r="CB26" s="3"/>
     </row>
-    <row r="27" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A27" s="30">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="4">
         <v>10.823691310812</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="25">
         <v>106.71902563952101</v>
       </c>
       <c r="F27" s="21">
@@ -9001,20 +9071,20 @@
       <c r="BZ27" s="8"/>
       <c r="CA27" s="8"/>
     </row>
-    <row r="28" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A28" s="30">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="4">
         <v>10.825404823407</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="25">
         <v>106.719383510686</v>
       </c>
       <c r="F28" s="21">
@@ -9198,20 +9268,20 @@
       <c r="BZ28" s="8"/>
       <c r="CA28" s="8"/>
     </row>
-    <row r="29" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A29" s="30">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="4">
         <v>10.8247565962926</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="25">
         <v>106.71970986650901</v>
       </c>
       <c r="F29" s="21">
@@ -9395,20 +9465,20 @@
       <c r="BZ29" s="8"/>
       <c r="CA29" s="8"/>
     </row>
-    <row r="30" spans="1:80" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30">
+    <row r="30" spans="1:80" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="4">
         <v>10.827122146369399</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="25">
         <v>106.723097295345</v>
       </c>
       <c r="F30" s="21">
@@ -9593,20 +9663,20 @@
       <c r="CA30" s="8"/>
       <c r="CB30" s="3"/>
     </row>
-    <row r="31" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
+    <row r="31" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="4">
         <v>10.8224003328167</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="25">
         <v>106.717973938471</v>
       </c>
       <c r="F31" s="21">
@@ -9791,20 +9861,20 @@
       <c r="CA31" s="8"/>
       <c r="CB31" s="3"/>
     </row>
-    <row r="32" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A32" s="30">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="4">
         <v>10.8250613374542</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="25">
         <v>106.72016902418</v>
       </c>
       <c r="F32" s="21">
@@ -9988,20 +10058,20 @@
       <c r="BZ32" s="8"/>
       <c r="CA32" s="8"/>
     </row>
-    <row r="33" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A33" s="30">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="4">
         <v>10.825988747167701</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="25">
         <v>106.715337097191</v>
       </c>
       <c r="F33" s="21">
@@ -10185,20 +10255,20 @@
       <c r="BZ33" s="8"/>
       <c r="CA33" s="8"/>
     </row>
-    <row r="34" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A34" s="30">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="4">
         <v>10.8261268576337</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="25">
         <v>106.719045666509</v>
       </c>
       <c r="F34" s="21">
@@ -10382,20 +10452,20 @@
       <c r="BZ34" s="8"/>
       <c r="CA34" s="8"/>
     </row>
-    <row r="35" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A35" s="30">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="4">
         <v>10.825591609540499</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="25">
         <v>106.718140226027</v>
       </c>
       <c r="F35" s="21">
@@ -10579,20 +10649,20 @@
       <c r="BZ35" s="8"/>
       <c r="CA35" s="8"/>
     </row>
-    <row r="36" spans="1:80" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30">
+    <row r="36" spans="1:80" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="4">
         <v>10.827122146369399</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="25">
         <v>106.723097295345</v>
       </c>
       <c r="F36" s="21">
@@ -10777,20 +10847,20 @@
       <c r="CA36" s="8"/>
       <c r="CB36" s="3"/>
     </row>
-    <row r="37" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A37" s="30">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="4">
         <v>10.825996233485499</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="25">
         <v>106.717530753015</v>
       </c>
       <c r="F37" s="21">
@@ -10974,20 +11044,20 @@
       <c r="BZ37" s="8"/>
       <c r="CA37" s="8"/>
     </row>
-    <row r="38" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A38" s="30">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="4">
         <v>10.8281127700354</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="25">
         <v>106.72837065301501</v>
       </c>
       <c r="F38" s="21">
@@ -11171,20 +11241,20 @@
       <c r="BZ38" s="8"/>
       <c r="CA38" s="8"/>
     </row>
-    <row r="39" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A39" s="30">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="4">
         <v>10.8263203954112</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="25">
         <v>106.728544066509</v>
       </c>
       <c r="F39" s="21">
@@ -11368,20 +11438,20 @@
       <c r="BZ39" s="8"/>
       <c r="CA39" s="8"/>
     </row>
-    <row r="40" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30">
+    <row r="40" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="4">
         <v>10.8224003328167</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="25">
         <v>106.717973938471</v>
       </c>
       <c r="F40" s="21">
@@ -11566,20 +11636,20 @@
       <c r="CA40" s="8"/>
       <c r="CB40" s="3"/>
     </row>
-    <row r="41" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
+    <row r="41" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="4">
         <v>10.824984423732699</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="25">
         <v>106.715586666509</v>
       </c>
       <c r="F41" s="21">
@@ -11763,20 +11833,20 @@
       <c r="BZ41" s="8"/>
       <c r="CA41" s="8"/>
     </row>
-    <row r="42" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30">
+    <row r="42" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="4">
         <v>10.8224003328167</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="25">
         <v>106.717973938471</v>
       </c>
       <c r="F42" s="21">
@@ -11961,20 +12031,20 @@
       <c r="CA42" s="8"/>
       <c r="CB42" s="3"/>
     </row>
-    <row r="43" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A43" s="30">
+    <row r="43" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="4">
         <v>10.8268261844417</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="25">
         <v>106.72634252418</v>
       </c>
       <c r="F43" s="21">
@@ -12158,20 +12228,20 @@
       <c r="BZ43" s="8"/>
       <c r="CA43" s="8"/>
     </row>
-    <row r="44" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A44" s="30">
+    <row r="44" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="4">
         <v>10.8287484208166</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="25">
         <v>106.72650752417999</v>
       </c>
       <c r="F44" s="21">
@@ -12355,20 +12425,20 @@
       <c r="BZ44" s="8"/>
       <c r="CA44" s="8"/>
     </row>
-    <row r="45" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A45" s="30">
+    <row r="45" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="4">
         <v>10.8283718967291</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="25">
         <v>106.724471493498</v>
       </c>
       <c r="F45" s="21">
@@ -12552,20 +12622,20 @@
       <c r="BZ45" s="8"/>
       <c r="CA45" s="8"/>
     </row>
-    <row r="46" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="30">
+    <row r="46" spans="1:80" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="4">
         <v>10.8224003328167</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="25">
         <v>106.717973938471</v>
       </c>
       <c r="F46" s="21">
@@ -12750,20 +12820,20 @@
       <c r="CA46" s="8"/>
       <c r="CB46" s="3"/>
     </row>
-    <row r="47" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A47" s="30">
+    <row r="47" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="4">
         <v>10.828319207715101</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="25">
         <v>106.724675341368</v>
       </c>
       <c r="F47" s="21">
@@ -12947,20 +13017,20 @@
       <c r="BZ47" s="8"/>
       <c r="CA47" s="8"/>
     </row>
-    <row r="48" spans="1:80" x14ac:dyDescent="0.2">
-      <c r="A48" s="30">
+    <row r="48" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="4">
         <v>10.827291581328</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="25">
         <v>106.72508558185</v>
       </c>
       <c r="F48" s="21">
@@ -13144,20 +13214,20 @@
       <c r="BZ48" s="8"/>
       <c r="CA48" s="8"/>
     </row>
-    <row r="49" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A49" s="30">
+    <row r="49" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="4">
         <v>10.8275693109261</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="25">
         <v>106.72501802418</v>
       </c>
       <c r="F49" s="21">
@@ -13341,20 +13411,20 @@
       <c r="BZ49" s="8"/>
       <c r="CA49" s="8"/>
     </row>
-    <row r="50" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A50" s="30">
+    <row r="50" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="4">
         <v>10.8265453089023</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="25">
         <v>106.71896881068599</v>
       </c>
       <c r="F50" s="21">
@@ -13538,20 +13608,20 @@
       <c r="BZ50" s="8"/>
       <c r="CA50" s="8"/>
     </row>
-    <row r="51" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A51" s="30">
+    <row r="51" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="4">
         <v>10.8282981321069</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="25">
         <v>106.724632426027</v>
       </c>
       <c r="F51" s="21">
@@ -13735,20 +13805,20 @@
       <c r="BZ51" s="8"/>
       <c r="CA51" s="8"/>
     </row>
-    <row r="52" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A52" s="30">
+    <row r="52" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="4">
         <v>10.827410446166301</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="25">
         <v>106.722624510686</v>
       </c>
       <c r="F52" s="21">
@@ -13932,7 +14002,7 @@
       <c r="BZ52" s="8"/>
       <c r="CA52" s="8"/>
     </row>
-    <row r="53" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:79" x14ac:dyDescent="0.3">
       <c r="H53" s="14">
         <v>49</v>
       </c>
@@ -14110,7 +14180,7 @@
       <c r="BZ53" s="8"/>
       <c r="CA53" s="8"/>
     </row>
-    <row r="54" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:79" x14ac:dyDescent="0.3">
       <c r="H54" s="14">
         <v>50</v>
       </c>
@@ -14296,66 +14366,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900C6971-3A87-3649-88E8-F5036A59D42E}">
-  <dimension ref="A1:CE75"/>
+  <dimension ref="A1:CE73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70:H73"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
     <col min="2" max="2" width="25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.5" style="3" customWidth="1"/>
     <col min="4" max="5" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="3"/>
-    <col min="8" max="8" width="10.83203125" style="11"/>
-    <col min="9" max="50" width="10.83203125" style="3" customWidth="1"/>
-    <col min="51" max="16384" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="9.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="3"/>
+    <col min="8" max="8" width="10.875" style="11"/>
+    <col min="9" max="50" width="10.875" style="3" customWidth="1"/>
+    <col min="51" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:79" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+    <row r="2" spans="1:79" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="24">
         <v>10.838752167306399</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="24">
         <v>106.729674501852</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="21">
         <v>0</v>
       </c>
-      <c r="G2" s="24"/>
       <c r="H2" s="16" t="s">
         <v>209</v>
       </c>
@@ -14573,26 +14641,25 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A3" s="30">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="4">
         <v>10.842093023839</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="25">
         <v>106.76142902418</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="22"/>
       <c r="H3" s="13">
         <v>0</v>
       </c>
@@ -14810,26 +14877,25 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A4" s="30">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="4">
         <v>10.842857889162399</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="25">
         <v>106.759843050923</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="22"/>
       <c r="H4" s="13">
         <v>1</v>
       </c>
@@ -15047,26 +15113,25 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="4">
         <v>10.842093023839</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="25">
         <v>106.76142902418</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="22"/>
       <c r="H5" s="13">
         <v>2</v>
       </c>
@@ -15284,26 +15349,25 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="4">
         <v>10.841182353131201</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="25">
         <v>106.758400164417</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="22"/>
       <c r="H6" s="13">
         <v>3</v>
       </c>
@@ -15521,26 +15585,25 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="4">
         <v>10.842847351870301</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="25">
         <v>106.759821593252</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="22"/>
       <c r="H7" s="13">
         <v>4</v>
       </c>
@@ -15758,26 +15821,25 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="4">
         <v>10.8419769645239</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="25">
         <v>106.759416850923</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="22"/>
       <c r="H8" s="13">
         <v>5</v>
       </c>
@@ -15995,26 +16057,25 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="4">
         <v>10.841182353131201</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="25">
         <v>106.758400164417</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="22"/>
       <c r="H9" s="13">
         <v>6</v>
       </c>
@@ -16232,26 +16293,25 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="4">
         <v>10.8388543381005</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="25">
         <v>106.754175680004</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="22"/>
       <c r="H10" s="13">
         <v>7</v>
       </c>
@@ -16469,26 +16529,25 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="4">
         <v>10.8390557374365</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="25">
         <v>106.75263685301501</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="22"/>
       <c r="H11" s="13">
         <v>8</v>
       </c>
@@ -16706,26 +16765,25 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="4">
         <v>10.835775877438801</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="25">
         <v>106.755635395345</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="G12" s="22"/>
       <c r="H12" s="13">
         <v>9</v>
       </c>
@@ -16943,26 +17001,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="4">
         <v>10.8404186743827</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="25">
         <v>106.763620168356</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="22"/>
       <c r="H13" s="13">
         <v>10</v>
       </c>
@@ -17180,26 +17237,25 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="4">
         <v>10.8386582756862</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="25">
         <v>106.75404792418</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="22"/>
       <c r="H14" s="13">
         <v>11</v>
       </c>
@@ -17417,26 +17473,25 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="4">
         <v>10.834761829614999</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="25">
         <v>106.756855426027</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="22"/>
       <c r="H15" s="13">
         <v>12</v>
       </c>
@@ -17654,26 +17709,25 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="4">
         <v>10.834766303398601</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="25">
         <v>106.75755626466299</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="22"/>
       <c r="H16" s="13">
         <v>13</v>
       </c>
@@ -17891,26 +17945,25 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="4">
         <v>10.837814555681</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="25">
         <v>106.759398577911</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="3">
         <v>2</v>
       </c>
-      <c r="G17" s="22"/>
       <c r="H17" s="13">
         <v>14</v>
       </c>
@@ -18128,26 +18181,25 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="4">
         <v>10.8384423009364</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="25">
         <v>106.75396586650901</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="22"/>
       <c r="H18" s="13">
         <v>15</v>
       </c>
@@ -18365,26 +18417,25 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+    <row r="19" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="4">
         <v>10.8371660311733</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="25">
         <v>106.76047192393401</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="22"/>
       <c r="H19" s="13">
         <v>16</v>
       </c>
@@ -18602,26 +18653,25 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
+    <row r="20" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="4">
         <v>10.842227910365001</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="25">
         <v>106.752002435828</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="22"/>
       <c r="H20" s="13">
         <v>17</v>
       </c>
@@ -18839,26 +18889,25 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
+    <row r="21" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="4">
         <v>10.842076435828</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="25">
         <v>106.760032710686</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="G21" s="22"/>
       <c r="H21" s="13">
         <v>18</v>
       </c>
@@ -19076,26 +19125,25 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
+    <row r="22" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="4">
         <v>10.836396052416299</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="25">
         <v>106.75442512418</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="3">
         <v>1</v>
       </c>
-      <c r="G22" s="22"/>
       <c r="H22" s="13">
         <v>19</v>
       </c>
@@ -19313,26 +19361,25 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A23" s="30">
+    <row r="23" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="4">
         <v>10.839461737672099</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="25">
         <v>106.75351163767399</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="G23" s="22"/>
       <c r="H23" s="13">
         <v>20</v>
       </c>
@@ -19550,26 +19597,25 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
+    <row r="24" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="4">
         <v>10.8374323515761</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="25">
         <v>106.755453508839</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="22"/>
       <c r="H24" s="13">
         <v>21</v>
       </c>
@@ -19787,26 +19833,25 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A25" s="30">
+    <row r="25" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="4">
         <v>10.841896352590499</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="25">
         <v>106.763240935582</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="22"/>
       <c r="H25" s="13">
         <v>22</v>
       </c>
@@ -20024,26 +20069,25 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A26" s="30">
+    <row r="26" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="4">
         <v>10.838813788364799</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="25">
         <v>106.75357091068599</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="22"/>
       <c r="H26" s="13">
         <v>23</v>
       </c>
@@ -20261,26 +20305,25 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A27" s="30">
+    <row r="27" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="4">
         <v>10.8382963010342</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="25">
         <v>106.75173980883901</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="22"/>
       <c r="H27" s="13">
         <v>24</v>
       </c>
@@ -20498,26 +20541,25 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A28" s="30">
+    <row r="28" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="4">
         <v>10.84310453344</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="25">
         <v>106.75984273952101</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="3">
         <v>1</v>
       </c>
-      <c r="G28" s="22"/>
       <c r="H28" s="13">
         <v>25</v>
       </c>
@@ -20734,31 +20776,26 @@
       <c r="CA28" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="CB28" s="22"/>
-      <c r="CC28" s="22"/>
-      <c r="CD28" s="22"/>
-      <c r="CE28" s="22"/>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A29" s="30">
+    <row r="29" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="4">
         <v>10.8390726630819</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="25">
         <v>106.761882166509</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="G29" s="22"/>
       <c r="H29" s="13">
         <v>26</v>
       </c>
@@ -20975,31 +21012,26 @@
       <c r="CA29" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="CB29" s="22"/>
-      <c r="CC29" s="22"/>
-      <c r="CD29" s="22"/>
-      <c r="CE29" s="22"/>
     </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A30" s="30">
+    <row r="30" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="4">
         <v>10.839711500086</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="25">
         <v>106.75108288185</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="G30" s="22"/>
       <c r="H30" s="13">
         <v>27</v>
       </c>
@@ -21216,31 +21248,26 @@
       <c r="CA30" s="8">
         <v>0.19</v>
       </c>
-      <c r="CB30" s="22"/>
-      <c r="CC30" s="22"/>
-      <c r="CD30" s="22"/>
-      <c r="CE30" s="22"/>
     </row>
-    <row r="31" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
+    <row r="31" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="4">
         <v>10.8415738108725</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="25">
         <v>106.76171710883899</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="22"/>
       <c r="H31" s="13">
         <v>28</v>
       </c>
@@ -21457,31 +21484,26 @@
       <c r="CA31" s="10">
         <v>2.4</v>
       </c>
-      <c r="CB31" s="22"/>
-      <c r="CC31" s="22"/>
-      <c r="CD31" s="22"/>
-      <c r="CE31" s="22"/>
     </row>
-    <row r="32" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A32" s="30">
+    <row r="32" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="4">
         <v>10.8411361859342</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="25">
         <v>106.751540295345</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="3">
         <v>1</v>
       </c>
-      <c r="G32" s="22"/>
       <c r="H32" s="13">
         <v>29</v>
       </c>
@@ -21698,31 +21720,27 @@
       <c r="CA32" s="8">
         <v>2.5</v>
       </c>
-      <c r="CB32" s="22"/>
-      <c r="CC32" s="22"/>
-      <c r="CD32" s="22"/>
-      <c r="CE32" s="22"/>
     </row>
-    <row r="33" spans="1:83" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30">
+    <row r="33" spans="1:83" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="4">
         <v>10.8415738108725</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="25">
         <v>106.76171710883899</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="3">
         <v>1</v>
       </c>
-      <c r="G33" s="22"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="13">
         <v>30</v>
       </c>
@@ -21939,31 +21957,30 @@
       <c r="CA33" s="8">
         <v>0.45</v>
       </c>
-      <c r="CB33" s="22"/>
-      <c r="CC33" s="22"/>
-      <c r="CD33" s="22"/>
-      <c r="CE33" s="22"/>
+      <c r="CB33" s="3"/>
+      <c r="CC33" s="3"/>
+      <c r="CD33" s="3"/>
+      <c r="CE33" s="3"/>
     </row>
-    <row r="34" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A34" s="30">
+    <row r="34" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="4">
         <v>10.841582961488299</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="25">
         <v>106.75214925301501</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="3">
         <v>1</v>
       </c>
-      <c r="G34" s="22"/>
       <c r="H34" s="13">
         <v>31</v>
       </c>
@@ -22180,31 +22197,27 @@
       <c r="CA34" s="8">
         <v>0.85</v>
       </c>
-      <c r="CB34" s="22"/>
-      <c r="CC34" s="22"/>
-      <c r="CD34" s="22"/>
-      <c r="CE34" s="22"/>
     </row>
-    <row r="35" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30">
+    <row r="35" spans="1:83" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="4">
         <v>10.841132841088299</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="25">
         <v>106.755491122088</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="3">
         <v>1</v>
       </c>
-      <c r="G35" s="22"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="13">
         <v>32</v>
       </c>
@@ -22421,31 +22434,30 @@
       <c r="CA35" s="8">
         <v>0.45</v>
       </c>
-      <c r="CB35" s="22"/>
-      <c r="CC35" s="22"/>
-      <c r="CD35" s="22"/>
-      <c r="CE35" s="22"/>
+      <c r="CB35" s="3"/>
+      <c r="CC35" s="3"/>
+      <c r="CD35" s="3"/>
+      <c r="CE35" s="3"/>
     </row>
-    <row r="36" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A36" s="30">
+    <row r="36" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="4">
         <v>10.834753616161899</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="25">
         <v>106.757242597191</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="3">
         <v>1</v>
       </c>
-      <c r="G36" s="22"/>
       <c r="H36" s="13">
         <v>33</v>
       </c>
@@ -22662,31 +22674,26 @@
       <c r="CA36" s="8">
         <v>1.5</v>
       </c>
-      <c r="CB36" s="22"/>
-      <c r="CC36" s="22"/>
-      <c r="CD36" s="22"/>
-      <c r="CE36" s="22"/>
     </row>
-    <row r="37" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A37" s="30">
+    <row r="37" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="4">
         <v>10.8384003009645</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="25">
         <v>106.754476722333</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="3">
         <v>1</v>
       </c>
-      <c r="G37" s="22"/>
       <c r="H37" s="13">
         <v>34</v>
       </c>
@@ -22903,31 +22910,26 @@
       <c r="CA37" s="8">
         <v>1.3</v>
       </c>
-      <c r="CB37" s="22"/>
-      <c r="CC37" s="22"/>
-      <c r="CD37" s="22"/>
-      <c r="CE37" s="22"/>
     </row>
-    <row r="38" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A38" s="30">
+    <row r="38" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="4">
         <v>10.838836950437299</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="25">
         <v>106.750735181851</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F38" s="3">
         <v>1</v>
       </c>
-      <c r="G38" s="22"/>
       <c r="H38" s="13">
         <v>35</v>
       </c>
@@ -23144,31 +23146,26 @@
       <c r="CA38" s="8">
         <v>1.4</v>
       </c>
-      <c r="CB38" s="22"/>
-      <c r="CC38" s="22"/>
-      <c r="CD38" s="22"/>
-      <c r="CE38" s="22"/>
     </row>
-    <row r="39" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A39" s="30">
+    <row r="39" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="4">
         <v>10.841580910866901</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="25">
         <v>106.749096854862</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="3">
         <v>1</v>
       </c>
-      <c r="G39" s="22"/>
       <c r="H39" s="13">
         <v>36</v>
       </c>
@@ -23385,31 +23382,26 @@
       <c r="CA39" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="CB39" s="22"/>
-      <c r="CC39" s="22"/>
-      <c r="CD39" s="22"/>
-      <c r="CE39" s="22"/>
     </row>
-    <row r="40" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A40" s="30">
+    <row r="40" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="4">
         <v>10.8409719618762</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="25">
         <v>106.75173039534501</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="3">
         <v>1</v>
       </c>
-      <c r="G40" s="22"/>
       <c r="H40" s="13">
         <v>37</v>
       </c>
@@ -23626,31 +23618,26 @@
       <c r="CA40" s="8">
         <v>0.6</v>
       </c>
-      <c r="CB40" s="22"/>
-      <c r="CC40" s="22"/>
-      <c r="CD40" s="22"/>
-      <c r="CE40" s="22"/>
     </row>
-    <row r="41" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
+    <row r="41" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="4">
         <v>10.841934935927799</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="25">
         <v>106.750290495345</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F41" s="3">
         <v>1</v>
       </c>
-      <c r="G41" s="22"/>
       <c r="H41" s="13">
         <v>38</v>
       </c>
@@ -23867,31 +23854,26 @@
       <c r="CA41" s="8">
         <v>2.8</v>
       </c>
-      <c r="CB41" s="22"/>
-      <c r="CC41" s="22"/>
-      <c r="CD41" s="22"/>
-      <c r="CE41" s="22"/>
     </row>
-    <row r="42" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A42" s="30">
+    <row r="42" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="4">
         <v>10.8404264369918</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="25">
         <v>106.75052142417999</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="3">
         <v>1</v>
       </c>
-      <c r="G42" s="22"/>
       <c r="H42" s="13">
         <v>39</v>
       </c>
@@ -24108,31 +24090,26 @@
       <c r="CA42" s="8">
         <v>0.17</v>
       </c>
-      <c r="CB42" s="22"/>
-      <c r="CC42" s="22"/>
-      <c r="CD42" s="22"/>
-      <c r="CE42" s="22"/>
     </row>
-    <row r="43" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A43" s="30">
+    <row r="43" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="4">
         <v>10.8404684864992</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="25">
         <v>106.750493839521</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="3">
         <v>2</v>
       </c>
-      <c r="G43" s="22"/>
       <c r="H43" s="13">
         <v>40</v>
       </c>
@@ -24349,31 +24326,26 @@
       <c r="CA43" s="8">
         <v>1.7</v>
       </c>
-      <c r="CB43" s="22"/>
-      <c r="CC43" s="22"/>
-      <c r="CD43" s="22"/>
-      <c r="CE43" s="22"/>
     </row>
-    <row r="44" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A44" s="30">
+    <row r="44" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="4">
         <v>10.8387737258293</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="25">
         <v>106.75071372418</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F44" s="3">
         <v>1</v>
       </c>
-      <c r="G44" s="22"/>
       <c r="H44" s="13">
         <v>41</v>
       </c>
@@ -24590,31 +24562,27 @@
       <c r="CA44" s="8">
         <v>0.25</v>
       </c>
-      <c r="CB44" s="22"/>
-      <c r="CC44" s="22"/>
-      <c r="CD44" s="22"/>
-      <c r="CE44" s="22"/>
     </row>
-    <row r="45" spans="1:83" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30">
+    <row r="45" spans="1:83" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="4">
         <v>10.8415738108725</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="25">
         <v>106.76171710883899</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F45" s="3">
         <v>1</v>
       </c>
-      <c r="G45" s="22"/>
+      <c r="G45" s="3"/>
       <c r="H45" s="13">
         <v>42</v>
       </c>
@@ -24831,31 +24799,30 @@
       <c r="CA45" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="CB45" s="22"/>
-      <c r="CC45" s="22"/>
-      <c r="CD45" s="22"/>
-      <c r="CE45" s="22"/>
+      <c r="CB45" s="3"/>
+      <c r="CC45" s="3"/>
+      <c r="CD45" s="3"/>
+      <c r="CE45" s="3"/>
     </row>
-    <row r="46" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A46" s="30">
+    <row r="46" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="4">
         <v>10.844181520611301</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="25">
         <v>106.752532753015</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="3">
         <v>1</v>
       </c>
-      <c r="G46" s="22"/>
       <c r="H46" s="13">
         <v>43</v>
       </c>
@@ -25072,31 +25039,26 @@
       <c r="CA46" s="8">
         <v>0.65</v>
       </c>
-      <c r="CB46" s="22"/>
-      <c r="CC46" s="22"/>
-      <c r="CD46" s="22"/>
-      <c r="CE46" s="22"/>
     </row>
-    <row r="47" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A47" s="30">
+    <row r="47" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="4">
         <v>10.842381210246099</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="25">
         <v>106.752701583697</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="3">
         <v>1</v>
       </c>
-      <c r="G47" s="22"/>
       <c r="H47" s="13">
         <v>44</v>
       </c>
@@ -25313,31 +25275,26 @@
       <c r="CA47" s="8">
         <v>0.8</v>
       </c>
-      <c r="CB47" s="22"/>
-      <c r="CC47" s="22"/>
-      <c r="CD47" s="22"/>
-      <c r="CE47" s="22"/>
     </row>
-    <row r="48" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A48" s="30">
+    <row r="48" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="4">
         <v>10.8445498085634</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="25">
         <v>106.752623995345</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F48" s="3">
         <v>1</v>
       </c>
-      <c r="G48" s="22"/>
       <c r="H48" s="14">
         <v>45</v>
       </c>
@@ -25554,31 +25511,26 @@
       <c r="CA48" s="8">
         <v>1.2</v>
       </c>
-      <c r="CB48" s="22"/>
-      <c r="CC48" s="22"/>
-      <c r="CD48" s="22"/>
-      <c r="CE48" s="22"/>
     </row>
-    <row r="49" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A49" s="30">
+    <row r="49" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="4">
         <v>10.840436974369201</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="25">
         <v>106.75052142417999</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F49" s="3">
         <v>4</v>
       </c>
-      <c r="G49" s="22"/>
       <c r="H49" s="14">
         <v>46</v>
       </c>
@@ -25795,31 +25747,26 @@
       <c r="CA49" s="8">
         <v>0.95</v>
       </c>
-      <c r="CB49" s="22"/>
-      <c r="CC49" s="22"/>
-      <c r="CD49" s="22"/>
-      <c r="CE49" s="22"/>
     </row>
-    <row r="50" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A50" s="30">
+    <row r="50" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="4">
         <v>10.839466037031601</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="25">
         <v>106.748899780004</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="3">
         <v>1</v>
       </c>
-      <c r="G50" s="22"/>
       <c r="H50" s="14">
         <v>47</v>
       </c>
@@ -26036,31 +25983,26 @@
       <c r="CA50" s="8">
         <v>2.1</v>
       </c>
-      <c r="CB50" s="22"/>
-      <c r="CC50" s="22"/>
-      <c r="CD50" s="22"/>
-      <c r="CE50" s="22"/>
     </row>
-    <row r="51" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A51" s="30">
+    <row r="51" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="4">
         <v>10.843680976697801</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="25">
         <v>106.75419013558199</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F51" s="3">
         <v>1</v>
       </c>
-      <c r="G51" s="22"/>
       <c r="H51" s="14">
         <v>48</v>
       </c>
@@ -26278,26 +26220,25 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="52" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A52" s="30">
+    <row r="52" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="4">
         <v>10.8401340434767</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="4">
         <v>106.75066051202499</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F52" s="3">
         <v>1</v>
       </c>
-      <c r="G52" s="22"/>
       <c r="H52" s="14">
         <v>49</v>
       </c>
@@ -26515,26 +26456,25 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="53" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A53" s="30">
+    <row r="53" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="4">
         <v>10.8399628108748</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="4">
         <v>106.75085363107399</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="3">
         <v>1</v>
       </c>
-      <c r="G53" s="22"/>
       <c r="H53" s="14">
         <v>50</v>
       </c>
@@ -26752,26 +26692,25 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A54" s="30">
+    <row r="54" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D54" s="31">
+      <c r="D54" s="4">
         <v>10.841281390317601</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E54" s="4">
         <v>106.750287128748</v>
       </c>
-      <c r="F54" s="22">
+      <c r="F54" s="3">
         <v>1</v>
       </c>
-      <c r="G54" s="22"/>
       <c r="H54" s="14">
         <v>51</v>
       </c>
@@ -26989,26 +26928,25 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A55" s="30">
+    <row r="55" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="4">
         <v>10.8395411349517</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="4">
         <v>106.75349038976699</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F55" s="3">
         <v>1</v>
       </c>
-      <c r="G55" s="22"/>
       <c r="H55" s="14">
         <v>52</v>
       </c>
@@ -27226,26 +27164,25 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="56" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A56" s="30">
+    <row r="56" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D56" s="31">
+      <c r="D56" s="4">
         <v>10.8408676908762</v>
       </c>
-      <c r="E56" s="31">
+      <c r="E56" s="4">
         <v>106.752771881307</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F56" s="3">
         <v>1</v>
       </c>
-      <c r="G56" s="22"/>
       <c r="H56" s="14">
         <v>53</v>
       </c>
@@ -27463,26 +27400,25 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A57" s="30">
+    <row r="57" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D57" s="31">
+      <c r="D57" s="4">
         <v>10.840433422576499</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="4">
         <v>106.75304132198001</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F57" s="3">
         <v>1</v>
       </c>
-      <c r="G57" s="22"/>
       <c r="H57" s="14">
         <v>54</v>
       </c>
@@ -27700,26 +27636,25 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A58" s="30">
+    <row r="58" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D58" s="31">
+      <c r="D58" s="4">
         <v>10.8422459400312</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E58" s="4">
         <v>106.753214086688</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F58" s="3">
         <v>1</v>
       </c>
-      <c r="G58" s="22"/>
       <c r="H58" s="14">
         <v>55</v>
       </c>
@@ -27937,26 +27872,25 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="59" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A59" s="30">
+    <row r="59" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D59" s="31">
+      <c r="D59" s="4">
         <v>10.842547890451799</v>
       </c>
-      <c r="E59" s="31">
+      <c r="E59" s="4">
         <v>106.75222268318799</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F59" s="3">
         <v>1</v>
       </c>
-      <c r="G59" s="22"/>
       <c r="H59" s="14">
         <v>56</v>
       </c>
@@ -28174,26 +28108,25 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="60" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A60" s="30">
+    <row r="60" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="4">
         <v>10.8422476363888</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="4">
         <v>106.75188242797999</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F60" s="3">
         <v>1</v>
       </c>
-      <c r="G60" s="22"/>
       <c r="H60" s="14">
         <v>57</v>
       </c>
@@ -28411,26 +28344,25 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="61" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A61" s="30">
+    <row r="61" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D61" s="31">
+      <c r="D61" s="4">
         <v>10.8419346593752</v>
       </c>
-      <c r="E61" s="31">
+      <c r="E61" s="4">
         <v>106.751939425046</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F61" s="3">
         <v>1</v>
       </c>
-      <c r="G61" s="22"/>
       <c r="H61" s="14">
         <v>58</v>
       </c>
@@ -28648,26 +28580,25 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A62" s="30">
+    <row r="62" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>60</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D62" s="31">
+      <c r="D62" s="4">
         <v>10.8419634973793</v>
       </c>
-      <c r="E62" s="31">
+      <c r="E62" s="4">
         <v>106.75203701093</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F62" s="3">
         <v>1</v>
       </c>
-      <c r="G62" s="22"/>
       <c r="H62" s="14">
         <v>59</v>
       </c>
@@ -28885,26 +28816,25 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A63" s="30">
+    <row r="63" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D63" s="31">
+      <c r="D63" s="4">
         <v>10.8434023879291</v>
       </c>
-      <c r="E63" s="31">
+      <c r="E63" s="4">
         <v>106.750752993273</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F63" s="3">
         <v>1</v>
       </c>
-      <c r="G63" s="22"/>
       <c r="H63" s="14">
         <v>60</v>
       </c>
@@ -29122,26 +29052,25 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="64" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A64" s="30">
+    <row r="64" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D64" s="31">
+      <c r="D64" s="4">
         <v>10.8427264752398</v>
       </c>
-      <c r="E64" s="31">
+      <c r="E64" s="4">
         <v>106.752754743655</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="3">
         <v>1</v>
       </c>
-      <c r="G64" s="22"/>
       <c r="H64" s="14">
         <v>61</v>
       </c>
@@ -29359,26 +29288,25 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A65" s="30">
+    <row r="65" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="31">
+      <c r="D65" s="4">
         <v>10.8428898032919</v>
       </c>
-      <c r="E65" s="31">
+      <c r="E65" s="4">
         <v>106.752666230758</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F65" s="3">
         <v>1</v>
       </c>
-      <c r="G65" s="22"/>
       <c r="H65" s="14">
         <v>62</v>
       </c>
@@ -29596,26 +29524,25 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A66" s="30">
+    <row r="66" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D66" s="31">
+      <c r="D66" s="4">
         <v>10.8422654681564</v>
       </c>
-      <c r="E66" s="31">
+      <c r="E66" s="4">
         <v>106.752448971828</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F66" s="3">
         <v>1</v>
       </c>
-      <c r="G66" s="22"/>
       <c r="H66" s="14">
         <v>63</v>
       </c>
@@ -29833,26 +29760,25 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A67" s="30">
+    <row r="67" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D67" s="31">
+      <c r="D67" s="4">
         <v>10.841788654361901</v>
       </c>
-      <c r="E67" s="31">
+      <c r="E67" s="4">
         <v>106.75233095463101</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F67" s="3">
         <v>1</v>
       </c>
-      <c r="G67" s="22"/>
       <c r="H67" s="14">
         <v>64</v>
       </c>
@@ -30070,26 +29996,25 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="68" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A68" s="30">
+    <row r="68" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>66</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D68" s="31">
+      <c r="D68" s="4">
         <v>10.8412933994609</v>
       </c>
-      <c r="E68" s="31">
+      <c r="E68" s="4">
         <v>106.752266581615</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="3">
         <v>1</v>
       </c>
-      <c r="G68" s="22"/>
       <c r="H68" s="14">
         <v>65</v>
       </c>
@@ -30307,26 +30232,25 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="69" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A69" s="30">
+    <row r="69" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>67</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D69" s="31">
+      <c r="D69" s="4">
         <v>10.841087921112599</v>
       </c>
-      <c r="E69" s="31">
+      <c r="E69" s="4">
         <v>106.751746233066</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F69" s="3">
         <v>1</v>
       </c>
-      <c r="G69" s="22"/>
       <c r="H69" s="14">
         <v>66</v>
       </c>
@@ -30544,26 +30468,25 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A70" s="30">
+    <row r="70" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D70" s="31">
+      <c r="D70" s="4">
         <v>10.8408007780708</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="4">
         <v>106.75188302572499</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F70" s="3">
         <v>1</v>
       </c>
-      <c r="G70" s="22"/>
       <c r="H70" s="14">
         <v>67</v>
       </c>
@@ -30781,26 +30704,25 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="71" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A71" s="30">
+    <row r="71" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D71" s="31">
+      <c r="D71" s="4">
         <v>10.840898248675501</v>
       </c>
-      <c r="E71" s="31">
+      <c r="E71" s="4">
         <v>106.751555796226</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F71" s="3">
         <v>1</v>
       </c>
-      <c r="G71" s="22"/>
       <c r="H71" s="14">
         <v>68</v>
       </c>
@@ -31018,26 +30940,25 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="72" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A72" s="30">
+    <row r="72" spans="1:79" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D72" s="31">
+      <c r="D72" s="4">
         <v>10.840737553872099</v>
       </c>
-      <c r="E72" s="31">
+      <c r="E72" s="4">
         <v>106.75161078151</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="3">
         <v>1</v>
       </c>
-      <c r="G72" s="22"/>
       <c r="H72" s="14">
         <v>69</v>
       </c>
@@ -31255,14 +31176,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="73" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A73" s="30"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
+    <row r="73" spans="1:79" x14ac:dyDescent="0.3">
       <c r="H73" s="14">
         <v>70</v>
       </c>
@@ -31479,22 +31393,1907 @@
       <c r="CA73" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A74" s="30"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="I74" s="25"/>
-    </row>
-    <row r="75" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="I75" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC5CA5F-F31D-4B1B-861B-F96EBCD59F02}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="29">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5501BE17-5D6B-492F-897B-9480097E4E71}">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+      <c r="F2" s="29">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29">
+        <v>-77</v>
+      </c>
+      <c r="C3" s="29">
+        <v>22</v>
+      </c>
+      <c r="D3" s="29">
+        <v>19</v>
+      </c>
+      <c r="E3" s="29">
+        <v>7</v>
+      </c>
+      <c r="F3" s="29">
+        <v>155</v>
+      </c>
+      <c r="G3" s="29">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29">
+        <v>39</v>
+      </c>
+      <c r="C4" s="29">
+        <v>79</v>
+      </c>
+      <c r="D4" s="29">
+        <v>22</v>
+      </c>
+      <c r="E4" s="29">
+        <v>22</v>
+      </c>
+      <c r="F4" s="29">
+        <v>137</v>
+      </c>
+      <c r="G4" s="29">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29">
+        <v>-88</v>
+      </c>
+      <c r="C5" s="29">
+        <v>-84</v>
+      </c>
+      <c r="D5" s="29">
+        <v>12</v>
+      </c>
+      <c r="E5" s="29">
+        <v>5</v>
+      </c>
+      <c r="F5" s="29">
+        <v>168</v>
+      </c>
+      <c r="G5" s="29">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29">
+        <v>-81</v>
+      </c>
+      <c r="C6" s="29">
+        <v>132</v>
+      </c>
+      <c r="D6" s="29">
+        <v>5</v>
+      </c>
+      <c r="E6" s="29">
+        <v>24</v>
+      </c>
+      <c r="F6" s="29">
+        <v>214</v>
+      </c>
+      <c r="G6" s="29">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29">
+        <v>90</v>
+      </c>
+      <c r="C7" s="29">
+        <v>-20</v>
+      </c>
+      <c r="D7" s="29">
+        <v>8</v>
+      </c>
+      <c r="E7" s="29">
+        <v>15</v>
+      </c>
+      <c r="F7" s="29">
+        <v>163</v>
+      </c>
+      <c r="G7" s="29">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29">
+        <v>-85</v>
+      </c>
+      <c r="C8" s="29">
+        <v>58</v>
+      </c>
+      <c r="D8" s="29">
+        <v>19</v>
+      </c>
+      <c r="E8" s="29">
+        <v>21</v>
+      </c>
+      <c r="F8" s="29">
+        <v>201</v>
+      </c>
+      <c r="G8" s="29">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29">
+        <v>12</v>
+      </c>
+      <c r="C9" s="29">
+        <v>-36</v>
+      </c>
+      <c r="D9" s="29">
+        <v>25</v>
+      </c>
+      <c r="E9" s="29">
+        <v>13</v>
+      </c>
+      <c r="F9" s="29">
+        <v>90</v>
+      </c>
+      <c r="G9" s="29">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29">
+        <v>58</v>
+      </c>
+      <c r="C10" s="29">
+        <v>9</v>
+      </c>
+      <c r="D10" s="29">
+        <v>17</v>
+      </c>
+      <c r="E10" s="29">
+        <v>13</v>
+      </c>
+      <c r="F10" s="29">
+        <v>228</v>
+      </c>
+      <c r="G10" s="29">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>9</v>
+      </c>
+      <c r="B11" s="29">
+        <v>-43</v>
+      </c>
+      <c r="C11" s="29">
+        <v>54</v>
+      </c>
+      <c r="D11" s="29">
+        <v>6</v>
+      </c>
+      <c r="E11" s="29">
+        <v>8</v>
+      </c>
+      <c r="F11" s="29">
+        <v>58</v>
+      </c>
+      <c r="G11" s="29">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29">
+        <v>-18</v>
+      </c>
+      <c r="C12" s="29">
+        <v>11</v>
+      </c>
+      <c r="D12" s="29">
+        <v>17</v>
+      </c>
+      <c r="E12" s="29">
+        <v>12</v>
+      </c>
+      <c r="F12" s="29">
+        <v>105</v>
+      </c>
+      <c r="G12" s="29">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>11</v>
+      </c>
+      <c r="B13" s="29">
+        <v>63</v>
+      </c>
+      <c r="C13" s="29">
+        <v>-82</v>
+      </c>
+      <c r="D13" s="29">
+        <v>23</v>
+      </c>
+      <c r="E13" s="29">
+        <v>16</v>
+      </c>
+      <c r="F13" s="29">
+        <v>252</v>
+      </c>
+      <c r="G13" s="29">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29">
+        <v>85</v>
+      </c>
+      <c r="C14" s="29">
+        <v>126</v>
+      </c>
+      <c r="D14" s="29">
+        <v>17</v>
+      </c>
+      <c r="E14" s="29">
+        <v>7</v>
+      </c>
+      <c r="F14" s="29">
+        <v>77</v>
+      </c>
+      <c r="G14" s="29">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29">
+        <v>64</v>
+      </c>
+      <c r="C15" s="29">
+        <v>46</v>
+      </c>
+      <c r="D15" s="29">
+        <v>5</v>
+      </c>
+      <c r="E15" s="29">
+        <v>11</v>
+      </c>
+      <c r="F15" s="29">
+        <v>173</v>
+      </c>
+      <c r="G15" s="29">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>14</v>
+      </c>
+      <c r="B16" s="29">
+        <v>-31</v>
+      </c>
+      <c r="C16" s="29">
+        <v>10</v>
+      </c>
+      <c r="D16" s="29">
+        <v>23</v>
+      </c>
+      <c r="E16" s="29">
+        <v>22</v>
+      </c>
+      <c r="F16" s="29">
+        <v>268</v>
+      </c>
+      <c r="G16" s="29">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>15</v>
+      </c>
+      <c r="B17" s="29">
+        <v>-57</v>
+      </c>
+      <c r="C17" s="29">
+        <v>-50</v>
+      </c>
+      <c r="D17" s="29">
+        <v>14</v>
+      </c>
+      <c r="E17" s="29">
+        <v>18</v>
+      </c>
+      <c r="F17" s="29">
+        <v>267</v>
+      </c>
+      <c r="G17" s="29">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>16</v>
+      </c>
+      <c r="B18" s="29">
+        <v>10</v>
+      </c>
+      <c r="C18" s="29">
+        <v>-136</v>
+      </c>
+      <c r="D18" s="29">
+        <v>21</v>
+      </c>
+      <c r="E18" s="29">
+        <v>9</v>
+      </c>
+      <c r="F18" s="29">
+        <v>247</v>
+      </c>
+      <c r="G18" s="29">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>17</v>
+      </c>
+      <c r="B19" s="29">
+        <v>1</v>
+      </c>
+      <c r="C19" s="29">
+        <v>-117</v>
+      </c>
+      <c r="D19" s="29">
+        <v>11</v>
+      </c>
+      <c r="E19" s="29">
+        <v>4</v>
+      </c>
+      <c r="F19" s="29">
+        <v>236</v>
+      </c>
+      <c r="G19" s="29">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>18</v>
+      </c>
+      <c r="B20" s="29">
+        <v>-8</v>
+      </c>
+      <c r="C20" s="29">
+        <v>-5</v>
+      </c>
+      <c r="D20" s="29">
+        <v>18</v>
+      </c>
+      <c r="E20" s="29">
+        <v>16</v>
+      </c>
+      <c r="F20" s="29">
+        <v>114</v>
+      </c>
+      <c r="G20" s="29">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>19</v>
+      </c>
+      <c r="B21" s="29">
+        <v>-79</v>
+      </c>
+      <c r="C21" s="29">
+        <v>-9</v>
+      </c>
+      <c r="D21" s="29">
+        <v>3</v>
+      </c>
+      <c r="E21" s="29">
+        <v>9</v>
+      </c>
+      <c r="F21" s="29">
+        <v>41</v>
+      </c>
+      <c r="G21" s="29">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>20</v>
+      </c>
+      <c r="B22" s="29">
+        <v>-42</v>
+      </c>
+      <c r="C22" s="29">
+        <v>43</v>
+      </c>
+      <c r="D22" s="29">
+        <v>13</v>
+      </c>
+      <c r="E22" s="29">
+        <v>12</v>
+      </c>
+      <c r="F22" s="29">
+        <v>212</v>
+      </c>
+      <c r="G22" s="29">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>21</v>
+      </c>
+      <c r="B23" s="29">
+        <v>-25</v>
+      </c>
+      <c r="C23" s="29">
+        <v>40</v>
+      </c>
+      <c r="D23" s="29">
+        <v>1</v>
+      </c>
+      <c r="E23" s="29">
+        <v>19</v>
+      </c>
+      <c r="F23" s="29">
+        <v>129</v>
+      </c>
+      <c r="G23" s="29">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>22</v>
+      </c>
+      <c r="B24" s="29">
+        <v>-12</v>
+      </c>
+      <c r="C24" s="29">
+        <v>48</v>
+      </c>
+      <c r="D24" s="29">
+        <v>10</v>
+      </c>
+      <c r="E24" s="29">
+        <v>14</v>
+      </c>
+      <c r="F24" s="29">
+        <v>66</v>
+      </c>
+      <c r="G24" s="29">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>23</v>
+      </c>
+      <c r="B25" s="29">
+        <v>3</v>
+      </c>
+      <c r="C25" s="29">
+        <v>-154</v>
+      </c>
+      <c r="D25" s="29">
+        <v>22</v>
+      </c>
+      <c r="E25" s="29">
+        <v>9</v>
+      </c>
+      <c r="F25" s="29">
+        <v>153</v>
+      </c>
+      <c r="G25" s="29">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>24</v>
+      </c>
+      <c r="B26" s="29">
+        <v>-56</v>
+      </c>
+      <c r="C26" s="29">
+        <v>50</v>
+      </c>
+      <c r="D26" s="29">
+        <v>9</v>
+      </c>
+      <c r="E26" s="29">
+        <v>6</v>
+      </c>
+      <c r="F26" s="29">
+        <v>170</v>
+      </c>
+      <c r="G26" s="29">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
+        <v>25</v>
+      </c>
+      <c r="B27" s="29">
+        <v>-4</v>
+      </c>
+      <c r="C27" s="29">
+        <v>-120</v>
+      </c>
+      <c r="D27" s="29">
+        <v>5</v>
+      </c>
+      <c r="E27" s="29">
+        <v>9</v>
+      </c>
+      <c r="F27" s="29">
+        <v>47</v>
+      </c>
+      <c r="G27" s="29">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
+        <v>26</v>
+      </c>
+      <c r="B28" s="29">
+        <v>65</v>
+      </c>
+      <c r="C28" s="29">
+        <v>-9</v>
+      </c>
+      <c r="D28" s="29">
+        <v>5</v>
+      </c>
+      <c r="E28" s="29">
+        <v>2</v>
+      </c>
+      <c r="F28" s="29">
+        <v>211</v>
+      </c>
+      <c r="G28" s="29">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="29">
+        <v>56</v>
+      </c>
+      <c r="C29" s="29">
+        <v>-12</v>
+      </c>
+      <c r="D29" s="29">
+        <v>5</v>
+      </c>
+      <c r="E29" s="29">
+        <v>6</v>
+      </c>
+      <c r="F29" s="29">
+        <v>150</v>
+      </c>
+      <c r="G29" s="29">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>28</v>
+      </c>
+      <c r="B30" s="29">
+        <v>-71</v>
+      </c>
+      <c r="C30" s="29">
+        <v>118</v>
+      </c>
+      <c r="D30" s="29">
+        <v>5</v>
+      </c>
+      <c r="E30" s="29">
+        <v>14</v>
+      </c>
+      <c r="F30" s="29">
+        <v>178</v>
+      </c>
+      <c r="G30" s="29">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>29</v>
+      </c>
+      <c r="B31" s="29">
+        <v>-43</v>
+      </c>
+      <c r="C31" s="29">
+        <v>-102</v>
+      </c>
+      <c r="D31" s="29">
+        <v>25</v>
+      </c>
+      <c r="E31" s="29">
+        <v>3</v>
+      </c>
+      <c r="F31" s="29">
+        <v>39</v>
+      </c>
+      <c r="G31" s="29">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>30</v>
+      </c>
+      <c r="B32" s="29">
+        <v>15</v>
+      </c>
+      <c r="C32" s="29">
+        <v>-27</v>
+      </c>
+      <c r="D32" s="29">
+        <v>1</v>
+      </c>
+      <c r="E32" s="29">
+        <v>16</v>
+      </c>
+      <c r="F32" s="29">
+        <v>63</v>
+      </c>
+      <c r="G32" s="29">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
+        <v>31</v>
+      </c>
+      <c r="B33" s="29">
+        <v>2</v>
+      </c>
+      <c r="C33" s="29">
+        <v>-142</v>
+      </c>
+      <c r="D33" s="29">
+        <v>4</v>
+      </c>
+      <c r="E33" s="29">
+        <v>16</v>
+      </c>
+      <c r="F33" s="29">
+        <v>19</v>
+      </c>
+      <c r="G33" s="29">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
+        <v>32</v>
+      </c>
+      <c r="B34" s="29">
+        <v>0</v>
+      </c>
+      <c r="C34" s="29">
+        <v>-66</v>
+      </c>
+      <c r="D34" s="29">
+        <v>9</v>
+      </c>
+      <c r="E34" s="29">
+        <v>21</v>
+      </c>
+      <c r="F34" s="29">
+        <v>135</v>
+      </c>
+      <c r="G34" s="29">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="29">
+        <v>33</v>
+      </c>
+      <c r="B35" s="29">
+        <v>19</v>
+      </c>
+      <c r="C35" s="29">
+        <v>-62</v>
+      </c>
+      <c r="D35" s="29">
+        <v>8</v>
+      </c>
+      <c r="E35" s="29">
+        <v>25</v>
+      </c>
+      <c r="F35" s="29">
+        <v>236</v>
+      </c>
+      <c r="G35" s="29">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="29">
+        <v>34</v>
+      </c>
+      <c r="B36" s="29">
+        <v>16</v>
+      </c>
+      <c r="C36" s="29">
+        <v>50</v>
+      </c>
+      <c r="D36" s="29">
+        <v>13</v>
+      </c>
+      <c r="E36" s="29">
+        <v>10</v>
+      </c>
+      <c r="F36" s="29">
+        <v>83</v>
+      </c>
+      <c r="G36" s="29">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="29">
+        <v>35</v>
+      </c>
+      <c r="B37" s="29">
+        <v>77</v>
+      </c>
+      <c r="C37" s="29">
+        <v>-78</v>
+      </c>
+      <c r="D37" s="29">
+        <v>7</v>
+      </c>
+      <c r="E37" s="29">
+        <v>13</v>
+      </c>
+      <c r="F37" s="29">
+        <v>53</v>
+      </c>
+      <c r="G37" s="29">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="29">
+        <v>36</v>
+      </c>
+      <c r="B38" s="29">
+        <v>-66</v>
+      </c>
+      <c r="C38" s="29">
+        <v>-111</v>
+      </c>
+      <c r="D38" s="29">
+        <v>18</v>
+      </c>
+      <c r="E38" s="29">
+        <v>2</v>
+      </c>
+      <c r="F38" s="29">
+        <v>259</v>
+      </c>
+      <c r="G38" s="29">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="29">
+        <v>37</v>
+      </c>
+      <c r="B39" s="29">
+        <v>75</v>
+      </c>
+      <c r="C39" s="29">
+        <v>104</v>
+      </c>
+      <c r="D39" s="29">
+        <v>20</v>
+      </c>
+      <c r="E39" s="29">
+        <v>15</v>
+      </c>
+      <c r="F39" s="29">
+        <v>156</v>
+      </c>
+      <c r="G39" s="29">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="29">
+        <v>38</v>
+      </c>
+      <c r="B40" s="29">
+        <v>75</v>
+      </c>
+      <c r="C40" s="29">
+        <v>-7</v>
+      </c>
+      <c r="D40" s="29">
+        <v>9</v>
+      </c>
+      <c r="E40" s="29">
+        <v>21</v>
+      </c>
+      <c r="F40" s="29">
+        <v>188</v>
+      </c>
+      <c r="G40" s="29">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="29">
+        <v>39</v>
+      </c>
+      <c r="B41" s="29">
+        <v>-41</v>
+      </c>
+      <c r="C41" s="29">
+        <v>149</v>
+      </c>
+      <c r="D41" s="29">
+        <v>7</v>
+      </c>
+      <c r="E41" s="29">
+        <v>14</v>
+      </c>
+      <c r="F41" s="29">
+        <v>153</v>
+      </c>
+      <c r="G41" s="29">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="29">
+        <v>40</v>
+      </c>
+      <c r="B42" s="29">
+        <v>52</v>
+      </c>
+      <c r="C42" s="29">
+        <v>-2</v>
+      </c>
+      <c r="D42" s="29">
+        <v>11</v>
+      </c>
+      <c r="E42" s="29">
+        <v>5</v>
+      </c>
+      <c r="F42" s="29">
+        <v>296</v>
+      </c>
+      <c r="G42" s="29">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="29">
+        <v>41</v>
+      </c>
+      <c r="B43" s="29">
+        <v>-26</v>
+      </c>
+      <c r="C43" s="29">
+        <v>123</v>
+      </c>
+      <c r="D43" s="29">
+        <v>15</v>
+      </c>
+      <c r="E43" s="29">
+        <v>18</v>
+      </c>
+      <c r="F43" s="29">
+        <v>152</v>
+      </c>
+      <c r="G43" s="29">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="29">
+        <v>42</v>
+      </c>
+      <c r="B44" s="29">
+        <v>80</v>
+      </c>
+      <c r="C44" s="29">
+        <v>104</v>
+      </c>
+      <c r="D44" s="29">
+        <v>5</v>
+      </c>
+      <c r="E44" s="29">
+        <v>2</v>
+      </c>
+      <c r="F44" s="29">
+        <v>210</v>
+      </c>
+      <c r="G44" s="29">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="29">
+        <v>43</v>
+      </c>
+      <c r="B45" s="29">
+        <v>67</v>
+      </c>
+      <c r="C45" s="29">
+        <v>-144</v>
+      </c>
+      <c r="D45" s="29">
+        <v>16</v>
+      </c>
+      <c r="E45" s="29">
+        <v>22</v>
+      </c>
+      <c r="F45" s="29">
+        <v>86</v>
+      </c>
+      <c r="G45" s="29">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="29">
+        <v>44</v>
+      </c>
+      <c r="B46" s="29">
+        <v>-33</v>
+      </c>
+      <c r="C46" s="29">
+        <v>-130</v>
+      </c>
+      <c r="D46" s="29">
+        <v>7</v>
+      </c>
+      <c r="E46" s="29">
+        <v>25</v>
+      </c>
+      <c r="F46" s="29">
+        <v>55</v>
+      </c>
+      <c r="G46" s="29">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="29">
+        <v>45</v>
+      </c>
+      <c r="B47" s="29">
+        <v>62</v>
+      </c>
+      <c r="C47" s="29">
+        <v>75</v>
+      </c>
+      <c r="D47" s="29">
+        <v>16</v>
+      </c>
+      <c r="E47" s="29">
+        <v>16</v>
+      </c>
+      <c r="F47" s="29">
+        <v>273</v>
+      </c>
+      <c r="G47" s="29">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="29">
+        <v>46</v>
+      </c>
+      <c r="B48" s="29">
+        <v>-18</v>
+      </c>
+      <c r="C48" s="29">
+        <v>-117</v>
+      </c>
+      <c r="D48" s="29">
+        <v>6</v>
+      </c>
+      <c r="E48" s="29">
+        <v>9</v>
+      </c>
+      <c r="F48" s="29">
+        <v>117</v>
+      </c>
+      <c r="G48" s="29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="29">
+        <v>47</v>
+      </c>
+      <c r="B49" s="29">
+        <v>52</v>
+      </c>
+      <c r="C49" s="29">
+        <v>166</v>
+      </c>
+      <c r="D49" s="29">
+        <v>11</v>
+      </c>
+      <c r="E49" s="29">
+        <v>8</v>
+      </c>
+      <c r="F49" s="29">
+        <v>300</v>
+      </c>
+      <c r="G49" s="29">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>48</v>
+      </c>
+      <c r="B50" s="29">
+        <v>17</v>
+      </c>
+      <c r="C50" s="29">
+        <v>97</v>
+      </c>
+      <c r="D50" s="29">
+        <v>25</v>
+      </c>
+      <c r="E50" s="29">
+        <v>15</v>
+      </c>
+      <c r="F50" s="29">
+        <v>91</v>
+      </c>
+      <c r="G50" s="29">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="29">
+        <v>49</v>
+      </c>
+      <c r="B51" s="29">
+        <v>-45</v>
+      </c>
+      <c r="C51" s="29">
+        <v>154</v>
+      </c>
+      <c r="D51" s="29">
+        <v>13</v>
+      </c>
+      <c r="E51" s="29">
+        <v>2</v>
+      </c>
+      <c r="F51" s="29">
+        <v>175</v>
+      </c>
+      <c r="G51" s="29">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="29">
+        <v>50</v>
+      </c>
+      <c r="B52" s="29">
+        <v>6</v>
+      </c>
+      <c r="C52" s="29">
+        <v>126</v>
+      </c>
+      <c r="D52" s="29">
+        <v>17</v>
+      </c>
+      <c r="E52" s="29">
+        <v>18</v>
+      </c>
+      <c r="F52" s="29">
+        <v>214</v>
+      </c>
+      <c r="G52" s="29">
+        <v>614</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFD5944-BEAC-4289-8FE7-01C01780C03D}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29">
+        <v>6.3394157833111286</v>
+      </c>
+      <c r="C2" s="29">
+        <v>-54.255371477878505</v>
+      </c>
+      <c r="D2" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29">
+        <v>-88.368025432542126</v>
+      </c>
+      <c r="C3" s="29">
+        <v>51.219993541761951</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29">
+        <v>-25.815103927998294</v>
+      </c>
+      <c r="C4" s="29">
+        <v>15.310217148282739</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29">
+        <v>-28.903128205713664</v>
+      </c>
+      <c r="C5" s="29">
+        <v>-45.609460521539809</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29">
+        <v>-16.962484036842106</v>
+      </c>
+      <c r="C6" s="29">
+        <v>106.40384684001872</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29">
+        <v>7.4317710896481648E-2</v>
+      </c>
+      <c r="C7" s="29">
+        <v>-112.26093621131749</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29">
+        <v>-8.5162460834683653</v>
+      </c>
+      <c r="C8" s="29">
+        <v>-17.124707203238373</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29">
+        <v>-31.284465208975735</v>
+      </c>
+      <c r="C9" s="29">
+        <v>-32.103519609036056</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29">
+        <v>-55.031358144190222</v>
+      </c>
+      <c r="C10" s="29">
+        <v>117.63377494202065</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1.7019350298585869</v>
+      </c>
+      <c r="C11" s="29">
+        <v>105.51562324717955</v>
+      </c>
+      <c r="D11" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29">
+        <v>2.3186300377741902</v>
+      </c>
+      <c r="C12" s="29">
+        <v>112.4928184852112</v>
+      </c>
+      <c r="D12" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29">
+        <v>-2.8201790494099388</v>
+      </c>
+      <c r="C13" s="29">
+        <v>-66.180814642065741</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C946BDD3-6898-435C-B410-AA6DFB440DB6}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29">
+        <v>475</v>
+      </c>
+      <c r="C2" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29">
+        <v>475</v>
+      </c>
+      <c r="C3" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29">
+        <v>475</v>
+      </c>
+      <c r="C4" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29">
+        <v>475</v>
+      </c>
+      <c r="C5" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29">
+        <v>475</v>
+      </c>
+      <c r="C6" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29">
+        <v>475</v>
+      </c>
+      <c r="C7" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29">
+        <v>475</v>
+      </c>
+      <c r="C8" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29">
+        <v>475</v>
+      </c>
+      <c r="C9" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29">
+        <v>475</v>
+      </c>
+      <c r="C10" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29">
+        <v>475</v>
+      </c>
+      <c r="C11" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29">
+        <v>475</v>
+      </c>
+      <c r="C12" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29">
+        <v>475</v>
+      </c>
+      <c r="C13" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29">
+        <v>475</v>
+      </c>
+      <c r="C14" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29">
+        <v>475</v>
+      </c>
+      <c r="C15" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="29">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29">
+        <v>475</v>
+      </c>
+      <c r="C16" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="29">
+        <v>475</v>
+      </c>
+      <c r="C17" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29">
+        <v>475</v>
+      </c>
+      <c r="C18" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29">
+        <v>475</v>
+      </c>
+      <c r="C19" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="29">
+        <v>475</v>
+      </c>
+      <c r="C20" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29">
+        <v>475</v>
+      </c>
+      <c r="C21" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29">
+        <v>475</v>
+      </c>
+      <c r="C22" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29">
+        <v>475</v>
+      </c>
+      <c r="C23" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29">
+        <v>475</v>
+      </c>
+      <c r="C24" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29">
+        <v>475</v>
+      </c>
+      <c r="C25" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="29">
+        <v>475</v>
+      </c>
+      <c r="C26" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" s="29">
+        <v>475</v>
+      </c>
+      <c r="C27" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="29">
+        <v>475</v>
+      </c>
+      <c r="C28" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29">
+        <v>475</v>
+      </c>
+      <c r="C29" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29">
+        <v>475</v>
+      </c>
+      <c r="C30" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29">
+        <v>475</v>
+      </c>
+      <c r="C31" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="29">
+        <v>475</v>
+      </c>
+      <c r="C32" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="29">
+        <v>475</v>
+      </c>
+      <c r="C33" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" s="29">
+        <v>475</v>
+      </c>
+      <c r="C34" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" s="29">
+        <v>475</v>
+      </c>
+      <c r="C35" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="29">
+        <v>35</v>
+      </c>
+      <c r="B36" s="29">
+        <v>475</v>
+      </c>
+      <c r="C36" s="29">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="29">
+        <v>36</v>
+      </c>
+      <c r="B37" s="29">
+        <v>475</v>
+      </c>
+      <c r="C37" s="29">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>